--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,22 +55,25 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>love</t>
+    <t>beautiful</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>salad</t>
   </si>
   <si>
     <t>perfect</t>
@@ -79,87 +82,87 @@
     <t>glad</t>
   </si>
   <si>
-    <t>salad</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>kids</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>potatoes</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>daughter</t>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>cake</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
     <t>ever</t>
   </si>
   <si>
-    <t>cheese</t>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>perfectly</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>bread</t>
+    <t>gift</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>perfectly</t>
+    <t>years</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
     <t>cooking</t>
   </si>
   <si>
+    <t>w</t>
+  </si>
+  <si>
     <t>day</t>
   </si>
   <si>
@@ -169,67 +172,70 @@
     <t>easy</t>
   </si>
   <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>also</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>little</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>coffee</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
-    <t>coffee</t>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>bought</t>
+    <t>like</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>buy</t>
   </si>
   <si>
     <t>one</t>
@@ -599,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,7 +616,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -668,13 +674,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3023255813953488</v>
+        <v>0.2945736434108527</v>
       </c>
       <c r="C3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -686,19 +692,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -710,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -718,13 +724,13 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>0.8984375</v>
+        <v>0.890625</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -736,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -744,13 +750,13 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.855072463768116</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M5">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -762,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -770,13 +776,13 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8478260869565217</v>
+        <v>0.846749226006192</v>
       </c>
       <c r="L6">
-        <v>39</v>
+        <v>547</v>
       </c>
       <c r="M6">
-        <v>39</v>
+        <v>547</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +802,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.8390092879256966</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L7">
-        <v>542</v>
+        <v>38</v>
       </c>
       <c r="M7">
-        <v>542</v>
+        <v>38</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -814,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>104</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -822,13 +828,13 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -840,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -848,13 +854,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.7532467532467533</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L9">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -866,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -874,13 +880,13 @@
         <v>17</v>
       </c>
       <c r="K10">
-        <v>0.7272727272727273</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -892,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -900,13 +906,13 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.696969696969697</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="L11">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="M11">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -918,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -926,13 +932,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.6711864406779661</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L12">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="M12">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -944,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>97</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -952,13 +958,13 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>0.6666666666666666</v>
+        <v>0.6677966101694915</v>
       </c>
       <c r="L13">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="M13">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -970,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -978,13 +984,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.6575342465753424</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L14">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M14">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -996,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1004,13 +1010,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6530612244897959</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L15">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1022,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1030,13 +1036,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>0.6508828250401284</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L16">
-        <v>811</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>811</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1048,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>435</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1056,13 +1062,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.64</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L17">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="M17">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1074,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1082,13 +1088,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.6239316239316239</v>
+        <v>0.6284109149277689</v>
       </c>
       <c r="L18">
-        <v>73</v>
+        <v>783</v>
       </c>
       <c r="M18">
-        <v>73</v>
+        <v>783</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1100,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>44</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1108,13 +1114,13 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.5964912280701754</v>
+        <v>0.625</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1126,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1134,13 +1140,13 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>0.59375</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1152,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1160,13 +1166,13 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.5915492957746479</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L21">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M21">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1178,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1186,13 +1192,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.5846153846153846</v>
+        <v>0.5942857142857143</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1204,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>27</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1212,13 +1218,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.5735294117647058</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1230,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1238,13 +1244,13 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.5714285714285714</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L24">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1256,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1264,13 +1270,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.5571428571428572</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="L25">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1282,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1290,13 +1296,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.5384615384615384</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L26">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M26">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1316,13 +1322,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.5288461538461539</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="L27">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="M27">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1334,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1368,13 +1374,13 @@
         <v>36</v>
       </c>
       <c r="K29">
-        <v>0.4861111111111111</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L29">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="M29">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1386,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1394,13 +1400,13 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.4761904761904762</v>
+        <v>0.5</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1412,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1420,13 +1426,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.4736842105263158</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L31">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1438,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1446,13 +1452,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.4698795180722892</v>
+        <v>0.4661654135338346</v>
       </c>
       <c r="L32">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="M32">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1464,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1472,13 +1478,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.4444444444444444</v>
+        <v>0.45</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M33">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1490,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1498,13 +1504,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.44</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="L34">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M34">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1516,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1524,13 +1530,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.4342105263157895</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="L35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1542,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1550,13 +1556,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.3975903614457831</v>
+        <v>0.4156626506024096</v>
       </c>
       <c r="L36">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M36">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1568,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1602,13 +1608,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.3504901960784313</v>
+        <v>0.3813229571984436</v>
       </c>
       <c r="L38">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="M38">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1620,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>265</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1628,13 +1634,13 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.3424124513618677</v>
+        <v>0.3799019607843137</v>
       </c>
       <c r="L39">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="M39">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1646,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>169</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1654,13 +1660,13 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.3423423423423423</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="L40">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M40">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1672,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1680,13 +1686,13 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.3267326732673267</v>
+        <v>0.3411764705882353</v>
       </c>
       <c r="L41">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M41">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1698,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1706,13 +1712,13 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.3237410071942446</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="L42">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M42">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1724,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1732,13 +1738,13 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.3232876712328767</v>
+        <v>0.3237410071942446</v>
       </c>
       <c r="L43">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="M43">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1750,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>494</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1758,13 +1764,13 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.2870813397129187</v>
+        <v>0.3136986301369863</v>
       </c>
       <c r="L44">
-        <v>60</v>
+        <v>229</v>
       </c>
       <c r="M44">
-        <v>60</v>
+        <v>229</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1776,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>149</v>
+        <v>501</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1784,13 +1790,13 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>0.2781954887218045</v>
+        <v>0.2980132450331126</v>
       </c>
       <c r="L45">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="M45">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1802,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1810,13 +1816,13 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.2781456953642384</v>
+        <v>0.2932330827067669</v>
       </c>
       <c r="L46">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M46">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1828,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1836,13 +1842,13 @@
         <v>54</v>
       </c>
       <c r="K47">
-        <v>0.2685185185185185</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L47">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M47">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1854,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1862,13 +1868,13 @@
         <v>55</v>
       </c>
       <c r="K48">
-        <v>0.2612612612612613</v>
+        <v>0.277511961722488</v>
       </c>
       <c r="L48">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="M48">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1880,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>82</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1888,13 +1894,13 @@
         <v>56</v>
       </c>
       <c r="K49">
-        <v>0.2604951560818084</v>
+        <v>0.2680301399354144</v>
       </c>
       <c r="L49">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="M49">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1906,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1914,13 +1920,13 @@
         <v>57</v>
       </c>
       <c r="K50">
-        <v>0.2351097178683386</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="L50">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="M50">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1932,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>244</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1940,13 +1946,13 @@
         <v>58</v>
       </c>
       <c r="K51">
-        <v>0.2147651006711409</v>
+        <v>0.2163009404388715</v>
       </c>
       <c r="L51">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="M51">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1958,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>117</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1966,13 +1972,13 @@
         <v>59</v>
       </c>
       <c r="K52">
-        <v>0.2105960264900662</v>
+        <v>0.2145695364238411</v>
       </c>
       <c r="L52">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M52">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -1984,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2018,25 +2024,25 @@
         <v>61</v>
       </c>
       <c r="K54">
-        <v>0.1724137931034483</v>
+        <v>0.1840490797546012</v>
       </c>
       <c r="L54">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M54">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>168</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2044,25 +2050,25 @@
         <v>62</v>
       </c>
       <c r="K55">
-        <v>0.1621621621621622</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="L55">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="M55">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="N55">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>310</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2070,13 +2076,13 @@
         <v>63</v>
       </c>
       <c r="K56">
-        <v>0.147766323024055</v>
+        <v>0.1644204851752022</v>
       </c>
       <c r="L56">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="M56">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2088,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>248</v>
+        <v>310</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2096,13 +2102,13 @@
         <v>64</v>
       </c>
       <c r="K57">
-        <v>0.1439114391143911</v>
+        <v>0.1557177615571776</v>
       </c>
       <c r="L57">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="M57">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2114,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>232</v>
+        <v>347</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2122,13 +2128,13 @@
         <v>65</v>
       </c>
       <c r="K58">
-        <v>0.1363636363636364</v>
+        <v>0.1431818181818182</v>
       </c>
       <c r="L58">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M58">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2140,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2148,13 +2154,13 @@
         <v>66</v>
       </c>
       <c r="K59">
-        <v>0.1336515513126492</v>
+        <v>0.1328413284132841</v>
       </c>
       <c r="L59">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="M59">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2166,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>363</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2174,13 +2180,13 @@
         <v>67</v>
       </c>
       <c r="K60">
-        <v>0.1313868613138686</v>
+        <v>0.1302521008403361</v>
       </c>
       <c r="L60">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M60">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2192,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>357</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2200,13 +2206,13 @@
         <v>68</v>
       </c>
       <c r="K61">
-        <v>0.1120218579234973</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L61">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M61">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2218,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>325</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2226,13 +2232,13 @@
         <v>69</v>
       </c>
       <c r="K62">
-        <v>0.1111111111111111</v>
+        <v>0.1118421052631579</v>
       </c>
       <c r="L62">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="M62">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2244,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>240</v>
+        <v>405</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2252,7 +2258,7 @@
         <v>70</v>
       </c>
       <c r="K63">
-        <v>0.1008771929824561</v>
+        <v>0.1097852028639618</v>
       </c>
       <c r="L63">
         <v>46</v>
@@ -2270,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>410</v>
+        <v>373</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2278,25 +2284,25 @@
         <v>71</v>
       </c>
       <c r="K64">
-        <v>0.09469153515064563</v>
+        <v>0.08895265423242468</v>
       </c>
       <c r="L64">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M64">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N64">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O64">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2304,25 +2310,25 @@
         <v>72</v>
       </c>
       <c r="K65">
-        <v>0.07850467289719626</v>
+        <v>0.08469945355191257</v>
       </c>
       <c r="L65">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="M65">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="N65">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>986</v>
+        <v>335</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2330,25 +2336,25 @@
         <v>73</v>
       </c>
       <c r="K66">
-        <v>0.07037037037037037</v>
+        <v>0.07614213197969544</v>
       </c>
       <c r="L66">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M66">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N66">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>502</v>
+        <v>364</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2356,25 +2362,77 @@
         <v>74</v>
       </c>
       <c r="K67">
-        <v>0.04076322636600174</v>
+        <v>0.07563025210084033</v>
       </c>
       <c r="L67">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="M67">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="N67">
+        <v>0.99</v>
+      </c>
+      <c r="O67">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K68">
+        <v>0.05535055350553506</v>
+      </c>
+      <c r="L68">
+        <v>30</v>
+      </c>
+      <c r="M68">
+        <v>30</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K69">
+        <v>0.03816131830008673</v>
+      </c>
+      <c r="L69">
+        <v>44</v>
+      </c>
+      <c r="M69">
+        <v>48</v>
+      </c>
+      <c r="N69">
         <v>0.92</v>
       </c>
-      <c r="O67">
+      <c r="O69">
         <v>0.07999999999999996</v>
       </c>
-      <c r="P67" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q67">
-        <v>1106</v>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>1109</v>
       </c>
     </row>
   </sheetData>
